--- a/SIG Proceedings Template-Jan2015 Zip/pics.xlsx
+++ b/SIG Proceedings Template-Jan2015 Zip/pics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-460" yWindow="500" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="2340" windowWidth="16000" windowHeight="11540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2625,602 +2625,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-              <a:t>Latency of Opening</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-              <a:t> a File</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" sz="1600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.107428258967629"/>
-          <c:y val="0.114286199516054"/>
-          <c:w val="0.85646062992126"/>
-          <c:h val="0.751825798754065"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$98</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$A$99:$A$101</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>mean</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99th-percentile</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$B$99:$B$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$C$98</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>aufs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$A$99:$A$101</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>mean</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99th-percentile</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$99:$C$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2035610112"/>
-        <c:axId val="-2047218880"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2035610112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2047218880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2047218880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-                  <a:t>Latency (us)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0114196478392957"/>
-              <c:y val="0.388713344094056"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2035610112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.469574156740906"/>
-          <c:y val="0.918358355044543"/>
-          <c:w val="0.130113862079576"/>
-          <c:h val="0.0573391225641266"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -3766,7 +3170,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4325,7 +3729,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4884,7 +4288,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5443,7 +4847,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6002,7 +5406,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6496,6 +5900,565 @@
           <c:yMode val="edge"/>
           <c:x val="0.121746289924568"/>
           <c:y val="0.0606554389034704"/>
+          <c:w val="0.424689710699347"/>
+          <c:h val="0.0688069339101641"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.172674461956131"/>
+          <c:y val="0.0333356531191177"/>
+          <c:w val="0.818554712078106"/>
+          <c:h val="0.75669589596755"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$71:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>455.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$71:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>219.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2009280400"/>
+        <c:axId val="-2009731520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2009280400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Size of Message (KB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.375231693180788"/>
+              <c:y val="0.884616837668019"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2009731520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2009731520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Latency (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.000581642600192928"/>
+              <c:y val="0.182843195736897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2009280400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.121746289924568"/>
+          <c:y val="0.0816992099472414"/>
           <c:w val="0.424689710699347"/>
           <c:h val="0.0688069339101641"/>
         </c:manualLayout>
@@ -7289,565 +7252,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$71:$B$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>111.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>217.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>455.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$C$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AUFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$A$14:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$71:$C$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>109.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>219.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>385.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2009280400"/>
-        <c:axId val="-2009731520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2009280400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Size of Message (KB)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.375231693180788"/>
-              <c:y val="0.884616837668019"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2009731520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2009731520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Latency (us)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.000581642600192928"/>
-              <c:y val="0.182843195736897"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2009280400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.121746289924568"/>
-          <c:y val="0.0816992099472414"/>
-          <c:w val="0.424689710699347"/>
-          <c:h val="0.0688069339101641"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.172674461956131"/>
-          <c:y val="0.0333356531191177"/>
-          <c:w val="0.818554712078106"/>
-          <c:h val="0.75669589596755"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$A$14:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>工作表1!$B$80:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -8241,7 +7645,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.121746289924568"/>
-          <c:y val="0.0816992099472414"/>
+          <c:y val="0.0648641931122246"/>
           <c:w val="0.424689710699347"/>
           <c:h val="0.0688069339101641"/>
         </c:manualLayout>
@@ -8307,7 +7711,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8800,7 +8204,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.121746289924568"/>
-          <c:y val="0.0816992099472414"/>
+          <c:y val="0.0648641931122246"/>
           <c:w val="0.424689710699347"/>
           <c:h val="0.0688069339101641"/>
         </c:manualLayout>
@@ -8819,6 +8223,541 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.107428258967629"/>
+          <c:y val="0.0267972572982183"/>
+          <c:w val="0.85646062992126"/>
+          <c:h val="0.817442644144548"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$99:$A$101</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>median</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99th-percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$99:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>aufs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$99:$A$101</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>median</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99th-percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$99:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2035610112"/>
+        <c:axId val="-2047218880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2035610112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2047218880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2047218880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                  <a:t>Latency (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00959695900873283"/>
+              <c:y val="0.279351892037117"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2035610112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.403957358840644"/>
+          <c:y val="0.929294599329939"/>
+          <c:w val="0.252234013727287"/>
+          <c:h val="0.0573391225641266"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11790,81 +11729,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>ls -R Latency Measurement</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" sz="1600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.348862642169729"/>
-          <c:y val="0.0364697301239971"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0932203438480951"/>
-          <c:y val="0.123370348673593"/>
-          <c:w val="0.858001919707543"/>
-          <c:h val="0.755791603730059"/>
+          <c:x val="0.116915298645412"/>
+          <c:y val="0.024945290631322"/>
+          <c:w val="0.834306964910226"/>
+          <c:h val="0.792245334490669"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -11910,7 +11785,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -12051,7 +11926,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -12064,14 +11939,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>Number of Layers</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" sz="1400"/>
+                <a:endParaRPr lang="zh-CN" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.389739094293003"/>
+              <c:y val="0.900061827901433"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12085,7 +11967,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -12117,7 +11999,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -12164,7 +12046,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -12177,14 +12059,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>Latency (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" sz="1400"/>
+                <a:endParaRPr lang="zh-CN" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0"/>
+              <c:y val="0.246591141330431"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12198,7 +12087,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -12230,7 +12119,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15871,7 +15760,7 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15979,6 +15868,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -15989,6 +15883,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -16020,6 +15919,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21018,7 +20920,7 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -21126,11 +21028,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -21141,11 +21038,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -21177,9 +21069,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -25364,8 +25253,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>484378</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>76708</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>143764</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25514,36 +25403,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>744728</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>15036</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="31" name="图表 30"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -25566,7 +25425,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25598,7 +25457,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25630,7 +25489,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25662,7 +25521,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25694,7 +25553,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25726,7 +25585,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25758,7 +25617,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25790,7 +25649,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25815,6 +25674,36 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>757428</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>156464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="图表 30"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -26096,8 +25985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/SIG Proceedings Template-Jan2015 Zip/pics.xlsx
+++ b/SIG Proceedings Template-Jan2015 Zip/pics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="2340" windowWidth="16000" windowHeight="11540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -432,11 +432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2067993408"/>
-        <c:axId val="-2097227200"/>
+        <c:axId val="-2066841312"/>
+        <c:axId val="-2087411040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2067993408"/>
+        <c:axId val="-2066841312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,7 +543,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097227200"/>
+        <c:crossAx val="-2087411040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -551,7 +551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097227200"/>
+        <c:axId val="-2087411040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +666,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067993408"/>
+        <c:crossAx val="-2066841312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -786,11 +786,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>M</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ean</a:t>
+              <a:t>Median</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -912,30 +908,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$71:$B$77</c:f>
+              <c:f>工作表1!$B$80:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.9</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.1</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217.8</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>455.3</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,30 +1008,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$71:$C$77</c:f>
+              <c:f>工作表1!$C$80:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.7</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.1</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.6</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.8</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>219.8</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>385.2</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,11 +1048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2046612272"/>
-        <c:axId val="-2023059552"/>
+        <c:axId val="-2065956032"/>
+        <c:axId val="-2105207920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046612272"/>
+        <c:axId val="-2065956032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1159,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2023059552"/>
+        <c:crossAx val="-2105207920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023059552"/>
+        <c:axId val="-2105207920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1282,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046612272"/>
+        <c:crossAx val="-2065956032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1406,7 +1402,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Median</a:t>
+              <a:t>99</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="30000"/>
+              <a:t>th</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-percentile</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -1528,30 +1532,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$80:$B$86</c:f>
+              <c:f>工作表1!$B$89:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>6222.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.0</c:v>
+                  <c:v>6571.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>10702.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,30 +1632,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$80:$C$86</c:f>
+              <c:f>工作表1!$C$89:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.0</c:v>
+                  <c:v>6369.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.0</c:v>
+                  <c:v>7310.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.0</c:v>
+                  <c:v>10711.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,11 +1672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2003628560"/>
-        <c:axId val="-2011124912"/>
+        <c:axId val="-2066189248"/>
+        <c:axId val="2108724080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2003628560"/>
+        <c:axId val="-2066189248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,7 +1783,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011124912"/>
+        <c:crossAx val="2108724080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1787,7 +1791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2011124912"/>
+        <c:axId val="2108724080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +1906,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2003628560"/>
+        <c:crossAx val="-2066189248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2001,82 +2005,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>99</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="30000"/>
-              <a:t>th</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>-percentile</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.115508310032728"/>
-          <c:y val="0.117510614650859"/>
-          <c:w val="0.875720864001509"/>
-          <c:h val="0.760904558846155"/>
+          <c:x val="0.172674461956131"/>
+          <c:y val="0.0333356531191177"/>
+          <c:w val="0.818554712078106"/>
+          <c:h val="0.75669589596755"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2087,11 +2026,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$70</c:f>
+              <c:f>工作表1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mount</c:v>
+                  <c:v>host</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2152,30 +2091,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$89:$B$95</c:f>
+              <c:f>工作表1!$B$14:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17.0</c:v>
+                  <c:v>334.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>402.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>419.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.0</c:v>
+                  <c:v>555.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6222.0</c:v>
+                  <c:v>827.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6571.0</c:v>
+                  <c:v>924.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10702.0</c:v>
+                  <c:v>1290.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,11 +2126,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$70</c:f>
+              <c:f>工作表1!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AUFS</c:v>
+                  <c:v>bridge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2252,30 +2191,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$89:$C$95</c:f>
+              <c:f>工作表1!$C$14:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>360.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.0</c:v>
+                  <c:v>423.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.0</c:v>
+                  <c:v>420.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.0</c:v>
+                  <c:v>593.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6369.0</c:v>
+                  <c:v>763.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7310.0</c:v>
+                  <c:v>1020.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10711.0</c:v>
+                  <c:v>1217.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,570 +2231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2100042128"/>
-        <c:axId val="-2068053216"/>
+        <c:axId val="-2120559856"/>
+        <c:axId val="-2117640848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2100042128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Size of Message (KB)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.392630087244433"/>
-              <c:y val="0.93040974044911"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2068053216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2068053216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Latency (us)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0080380971988977"/>
-              <c:y val="0.380654640938911"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2100042128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0894349866635145"/>
-          <c:y val="0.0494872934190313"/>
-          <c:w val="0.260647709527842"/>
-          <c:h val="0.0688069339101641"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.172674461956131"/>
-          <c:y val="0.0333356531191177"/>
-          <c:w val="0.818554712078106"/>
-          <c:h val="0.75669589596755"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>host</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$A$14:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$B$14:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>334.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>402.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>419.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>555.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>827.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>924.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1290.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>bridge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$A$14:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$14:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>360.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>423.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>420.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>593.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>763.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1020.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1217.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2033833552"/>
-        <c:axId val="-2053042864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2033833552"/>
+        <c:axId val="-2120559856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,7 +2342,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053042864"/>
+        <c:crossAx val="-2117640848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2970,7 +2350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2053042864"/>
+        <c:axId val="-2117640848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +2465,566 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033833552"/>
+        <c:crossAx val="-2120559856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.121746289924568"/>
+          <c:y val="0.0606554389034704"/>
+          <c:w val="0.424689710699347"/>
+          <c:h val="0.0688069339101641"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.172674461956131"/>
+          <c:y val="0.0333356531191177"/>
+          <c:w val="0.818554712078106"/>
+          <c:h val="0.75669589596755"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>host</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$23:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>409.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>423.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>823.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>926.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1293.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bridge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$23:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>418.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>589.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>759.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1022.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1212.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2103933568"/>
+        <c:axId val="-2066214768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2103933568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Size of Message (KB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.375231693180788"/>
+              <c:y val="0.884616837668019"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2066214768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2066214768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Latency (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.000581642600192928"/>
+              <c:y val="0.182843195736897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2103933568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3270,30 +3209,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$23:$B$29</c:f>
+              <c:f>工作表1!$B$32:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>340.0</c:v>
+                  <c:v>389.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>409.0</c:v>
+                  <c:v>438.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>423.0</c:v>
+                  <c:v>444.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>550.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>823.0</c:v>
+                  <c:v>862.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>926.0</c:v>
+                  <c:v>971.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1293.0</c:v>
+                  <c:v>1326.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,30 +3309,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$23:$C$29</c:f>
+              <c:f>工作表1!$C$32:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>368.0</c:v>
+                  <c:v>396.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>418.0</c:v>
+                  <c:v>484.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>414.0</c:v>
+                  <c:v>488.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>589.0</c:v>
+                  <c:v>648.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>759.0</c:v>
+                  <c:v>808.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1022.0</c:v>
+                  <c:v>1066.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1212.0</c:v>
+                  <c:v>1250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3410,11 +3349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2023909648"/>
-        <c:axId val="-2019738672"/>
+        <c:axId val="-2086068672"/>
+        <c:axId val="-2086153552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2023909648"/>
+        <c:axId val="-2086068672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,7 +3460,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2019738672"/>
+        <c:crossAx val="-2086153552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3529,7 +3468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2019738672"/>
+        <c:axId val="-2086153552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3644,7 +3583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2023909648"/>
+        <c:crossAx val="-2086068672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3829,30 +3768,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$32:$B$38</c:f>
+              <c:f>工作表1!$B$44:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>389.0</c:v>
+                  <c:v>334.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>438.0</c:v>
+                  <c:v>402.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>444.0</c:v>
+                  <c:v>419.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600.0</c:v>
+                  <c:v>555.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>862.0</c:v>
+                  <c:v>827.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>971.0</c:v>
+                  <c:v>924.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1326.0</c:v>
+                  <c:v>1290.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3929,30 +3868,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$32:$C$38</c:f>
+              <c:f>工作表1!$C$44:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>396.0</c:v>
+                  <c:v>360.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>484.0</c:v>
+                  <c:v>423.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>488.0</c:v>
+                  <c:v>420.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>648.0</c:v>
+                  <c:v>593.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>808.0</c:v>
+                  <c:v>763.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1066.0</c:v>
+                  <c:v>1020.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1250.0</c:v>
+                  <c:v>1217.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3969,11 +3908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2012019584"/>
-        <c:axId val="-2011963392"/>
+        <c:axId val="-2099287584"/>
+        <c:axId val="-2115603440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2012019584"/>
+        <c:axId val="-2099287584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4080,7 +4019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011963392"/>
+        <c:crossAx val="-2115603440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4088,7 +4027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2011963392"/>
+        <c:axId val="-2115603440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,7 +4142,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012019584"/>
+        <c:crossAx val="-2099287584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4388,30 +4327,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$44:$B$50</c:f>
+              <c:f>工作表1!$B$53:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>334.3</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402.3</c:v>
+                  <c:v>409.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>419.7</c:v>
+                  <c:v>423.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>555.5</c:v>
+                  <c:v>550.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>827.0</c:v>
+                  <c:v>823.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>924.4</c:v>
+                  <c:v>926.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1290.2</c:v>
+                  <c:v>1293.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4488,30 +4427,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$44:$C$50</c:f>
+              <c:f>工作表1!$C$53:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>360.2</c:v>
+                  <c:v>368.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423.2</c:v>
+                  <c:v>418.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420.7</c:v>
+                  <c:v>414.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>593.4</c:v>
+                  <c:v>589.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>763.5</c:v>
+                  <c:v>759.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1020.2</c:v>
+                  <c:v>1022.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1217.1</c:v>
+                  <c:v>1212.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4528,11 +4467,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2027366400"/>
-        <c:axId val="-2036451744"/>
+        <c:axId val="-2115006848"/>
+        <c:axId val="-2102830144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2027366400"/>
+        <c:axId val="-2115006848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4639,7 +4578,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036451744"/>
+        <c:crossAx val="-2102830144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4647,7 +4586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036451744"/>
+        <c:axId val="-2102830144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,7 +4701,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2027366400"/>
+        <c:crossAx val="-2115006848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4947,7 +4886,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$53:$B$59</c:f>
+              <c:f>工作表1!$B$62:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5047,7 +4986,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$53:$C$59</c:f>
+              <c:f>工作表1!$C$62:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5087,11 +5026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2009785488"/>
-        <c:axId val="-2024429184"/>
+        <c:axId val="-2087480912"/>
+        <c:axId val="-2105215376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2009785488"/>
+        <c:axId val="-2087480912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5198,7 +5137,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2024429184"/>
+        <c:crossAx val="-2105215376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5206,7 +5145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2024429184"/>
+        <c:axId val="-2105215376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5321,7 +5260,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009785488"/>
+        <c:crossAx val="-2087480912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5441,11 +5380,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
+              <c:f>工作表1!$B$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>host</c:v>
+                  <c:v>mount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5506,30 +5445,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$62:$B$68</c:f>
+              <c:f>工作表1!$B$71:$B$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>340.0</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>409.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>423.0</c:v>
+                  <c:v>17.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>550.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>823.0</c:v>
+                  <c:v>111.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>926.0</c:v>
+                  <c:v>217.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1293.0</c:v>
+                  <c:v>455.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5541,11 +5480,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$13</c:f>
+              <c:f>工作表1!$C$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bridge</c:v>
+                  <c:v>AUFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5606,30 +5545,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$62:$C$68</c:f>
+              <c:f>工作表1!$C$71:$C$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>368.0</c:v>
+                  <c:v>6.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>418.0</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>414.0</c:v>
+                  <c:v>15.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>589.0</c:v>
+                  <c:v>32.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>759.0</c:v>
+                  <c:v>109.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1022.0</c:v>
+                  <c:v>219.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1212.0</c:v>
+                  <c:v>385.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5646,11 +5585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2037328192"/>
-        <c:axId val="-2008318848"/>
+        <c:axId val="-2065717984"/>
+        <c:axId val="-2104534544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2037328192"/>
+        <c:axId val="-2065717984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5757,7 +5696,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008318848"/>
+        <c:crossAx val="-2104534544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5765,7 +5704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2008318848"/>
+        <c:axId val="-2104534544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,7 +5819,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2037328192"/>
+        <c:crossAx val="-2065717984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5899,7 +5838,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.121746289924568"/>
-          <c:y val="0.0606554389034704"/>
+          <c:y val="0.0816992099472414"/>
           <c:w val="0.424689710699347"/>
           <c:h val="0.0688069339101641"/>
         </c:manualLayout>
@@ -6065,30 +6004,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$71:$B$77</c:f>
+              <c:f>工作表1!$B$80:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.9</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.1</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217.8</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>455.3</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6165,30 +6104,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$71:$C$77</c:f>
+              <c:f>工作表1!$C$80:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.7</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.1</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.6</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.8</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>219.8</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>385.2</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6205,11 +6144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2009280400"/>
-        <c:axId val="-2009731520"/>
+        <c:axId val="-2120256944"/>
+        <c:axId val="-2066178688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2009280400"/>
+        <c:axId val="-2120256944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6316,7 +6255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009731520"/>
+        <c:crossAx val="-2066178688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6324,7 +6263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2009731520"/>
+        <c:axId val="-2066178688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6439,7 +6378,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009280400"/>
+        <c:crossAx val="-2120256944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6458,7 +6397,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.121746289924568"/>
-          <c:y val="0.0816992099472414"/>
+          <c:y val="0.0648641931122246"/>
           <c:w val="0.424689710699347"/>
           <c:h val="0.0688069339101641"/>
         </c:manualLayout>
@@ -6833,11 +6772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2070376064"/>
-        <c:axId val="-2022742800"/>
+        <c:axId val="-2103428640"/>
+        <c:axId val="2143655568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2070376064"/>
+        <c:axId val="-2103428640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6944,7 +6883,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022742800"/>
+        <c:crossAx val="2143655568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6952,7 +6891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2022742800"/>
+        <c:axId val="2143655568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7067,7 +7006,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070376064"/>
+        <c:crossAx val="-2103428640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7252,30 +7191,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$80:$B$86</c:f>
+              <c:f>工作表1!$B$89:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>6222.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.0</c:v>
+                  <c:v>6571.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>10702.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7352,30 +7291,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$80:$C$86</c:f>
+              <c:f>工作表1!$C$89:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.0</c:v>
+                  <c:v>6369.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.0</c:v>
+                  <c:v>7310.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.0</c:v>
+                  <c:v>10711.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7392,11 +7331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2007182560"/>
-        <c:axId val="-2007181424"/>
+        <c:axId val="2143233888"/>
+        <c:axId val="-2086149696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2007182560"/>
+        <c:axId val="2143233888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7503,7 +7442,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007181424"/>
+        <c:crossAx val="-2086149696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7511,7 +7450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2007181424"/>
+        <c:axId val="-2086149696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7626,7 +7565,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007182560"/>
+        <c:crossAx val="2143233888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7732,565 +7671,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.172674461956131"/>
-          <c:y val="0.0333356531191177"/>
-          <c:w val="0.818554712078106"/>
-          <c:h val="0.75669589596755"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$A$14:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$B$89:$B$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6222.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6571.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10702.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$C$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AUFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$A$14:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$89:$C$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6369.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7310.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10711.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2016777952"/>
-        <c:axId val="-2036827664"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2016777952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Size of Message (KB)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.375231693180788"/>
-              <c:y val="0.884616837668019"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2036827664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2036827664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Latency (us)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.000581642600192928"/>
-              <c:y val="0.182843195736897"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2016777952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.121746289924568"/>
-          <c:y val="0.0648641931122246"/>
-          <c:w val="0.424689710699347"/>
-          <c:h val="0.0688069339101641"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="0.107428258967629"/>
           <c:y val="0.0267972572982183"/>
           <c:w val="0.85646062992126"/>
@@ -8550,11 +7930,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2035610112"/>
-        <c:axId val="-2047218880"/>
+        <c:axId val="-2100082976"/>
+        <c:axId val="-2065451744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2035610112"/>
+        <c:axId val="-2100082976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8597,7 +7977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047218880"/>
+        <c:crossAx val="-2065451744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8605,7 +7985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2047218880"/>
+        <c:axId val="-2065451744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8720,7 +8100,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035610112"/>
+        <c:crossAx val="-2100082976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8793,6 +8173,491 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.142442182791387"/>
+          <c:y val="0.0580182253090806"/>
+          <c:w val="0.837806705368426"/>
+          <c:h val="0.789771465089126"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># &gt; 1000 us</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>104996.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68221.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50187.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37334.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14273.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2066969936"/>
+        <c:axId val="-2087587344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2066969936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>CPU Quota (us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.437117804935841"/>
+              <c:y val="0.905738417991985"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087587344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2087587344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00529756914066297"/>
+              <c:y val="0.396173067755684"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2066969936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -9123,11 +8988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2022738192"/>
-        <c:axId val="-2022732368"/>
+        <c:axId val="2139641376"/>
+        <c:axId val="-2068076112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2022738192"/>
+        <c:axId val="2139641376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9234,7 +9099,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022732368"/>
+        <c:crossAx val="-2068076112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9242,7 +9107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2022732368"/>
+        <c:axId val="-2068076112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9357,7 +9222,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022738192"/>
+        <c:crossAx val="2139641376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9743,11 +9608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099694800"/>
-        <c:axId val="-2084678800"/>
+        <c:axId val="-2102650592"/>
+        <c:axId val="-2088367968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099694800"/>
+        <c:axId val="-2102650592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9854,7 +9719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084678800"/>
+        <c:crossAx val="-2088367968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9862,7 +9727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084678800"/>
+        <c:axId val="-2088367968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9977,7 +9842,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099694800"/>
+        <c:crossAx val="-2102650592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10063,486 +9928,6 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.143835982116409"/>
-          <c:y val="0.0187894128507139"/>
-          <c:w val="0.832469063086274"/>
-          <c:h val="0.790633872984054"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v># &gt; 1000 us</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>104996.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>68221.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50187.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37334.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14273.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2024094304"/>
-        <c:axId val="-2019733024"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2024094304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>CPU Quota (us)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.434894272566323"/>
-              <c:y val="0.905910442743806"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2019733024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2019733024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2024094304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -10822,11 +10207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2020507728"/>
-        <c:axId val="-2009210976"/>
+        <c:axId val="-2086634896"/>
+        <c:axId val="-2085991632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2020507728"/>
+        <c:axId val="-2086634896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10930,7 +10315,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009210976"/>
+        <c:crossAx val="-2085991632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10938,7 +10323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2009210976"/>
+        <c:axId val="-2085991632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11050,7 +10435,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020507728"/>
+        <c:crossAx val="-2086634896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11140,7 +10525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11471,11 +10856,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2032617008"/>
-        <c:axId val="-2033442416"/>
+        <c:axId val="-2065862560"/>
+        <c:axId val="-2066454944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2032617008"/>
+        <c:axId val="-2065862560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11518,7 +10903,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033442416"/>
+        <c:crossAx val="-2066454944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11526,7 +10911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2033442416"/>
+        <c:axId val="-2066454944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11634,7 +11019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032617008"/>
+        <c:crossAx val="-2065862560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11715,7 +11100,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11909,11 +11294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2022783472"/>
-        <c:axId val="-2022773472"/>
+        <c:axId val="2103173680"/>
+        <c:axId val="-2099524336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2022783472"/>
+        <c:axId val="2103173680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12014,12 +11399,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022773472"/>
+        <c:crossAx val="-2099524336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2022773472"/>
+        <c:axId val="-2099524336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12134,7 +11519,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022783472"/>
+        <c:crossAx val="2103173680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12178,7 +11563,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -12496,11 +11881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2023033504"/>
-        <c:axId val="-2023012992"/>
+        <c:axId val="2143717616"/>
+        <c:axId val="-2088225520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2023033504"/>
+        <c:axId val="2143717616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12607,7 +11992,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2023012992"/>
+        <c:crossAx val="-2088225520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12615,7 +12000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023012992"/>
+        <c:axId val="-2088225520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12730,7 +12115,627 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2023033504"/>
+        <c:crossAx val="2143717616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0894349866635145"/>
+          <c:y val="0.0494872934190313"/>
+          <c:w val="0.260647709527842"/>
+          <c:h val="0.0688069339101641"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>M</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ean</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.115508310032728"/>
+          <c:y val="0.117510614650859"/>
+          <c:w val="0.875720864001509"/>
+          <c:h val="0.760904558846155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$71:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>455.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$71:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>219.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2066347856"/>
+        <c:axId val="-2067231040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2066347856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Size of Message (KB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.392630087244433"/>
+              <c:y val="0.93040974044911"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2067231040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2067231040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Latency (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0080380971988977"/>
+              <c:y val="0.380654640938911"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2066347856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20404,7 +20409,7 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -20512,11 +20517,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -20527,11 +20527,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -20563,9 +20558,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20920,7 +20912,7 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -21028,6 +21020,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -21038,6 +21035,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -21069,6 +21071,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -22971,7 +22976,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -23079,11 +23084,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -23094,11 +23094,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -23130,9 +23125,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23487,7 +23479,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -23595,6 +23587,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -23605,6 +23602,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -23636,6 +23638,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -25154,36 +25159,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>452628</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>131063</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -25207,7 +25182,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25237,7 +25212,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25267,7 +25242,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25299,7 +25274,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25331,7 +25306,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25363,7 +25338,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25395,7 +25370,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25403,16 +25378,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>632917</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>772617</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25425,7 +25400,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25457,7 +25432,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25489,7 +25464,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25521,7 +25496,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25553,7 +25528,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25585,7 +25560,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25617,7 +25592,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25649,7 +25624,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25681,7 +25656,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25703,6 +25678,36 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="31" name="图表 30"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>207432</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>529482</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121595</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -25985,7 +25990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="94" workbookViewId="0">
       <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>

--- a/SIG Proceedings Template-Jan2015 Zip/pics.xlsx
+++ b/SIG Proceedings Template-Jan2015 Zip/pics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t># &gt; 1000 us</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,18 @@
     <t>AUFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99th-percentile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -115,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -176,7 +189,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -432,11 +444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066841312"/>
-        <c:axId val="-2087411040"/>
+        <c:axId val="-2092053328"/>
+        <c:axId val="-2092045488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066841312"/>
+        <c:axId val="-2092053328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,7 +555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087411040"/>
+        <c:crossAx val="-2092045488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -551,7 +563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087411040"/>
+        <c:axId val="-2092045488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +678,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066841312"/>
+        <c:crossAx val="-2092053328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -792,7 +804,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1048,11 +1059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065956032"/>
-        <c:axId val="-2105207920"/>
+        <c:axId val="2142100176"/>
+        <c:axId val="2142105984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065956032"/>
+        <c:axId val="2142100176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105207920"/>
+        <c:crossAx val="2142105984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1167,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105207920"/>
+        <c:axId val="2142105984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,7 +1293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065956032"/>
+        <c:crossAx val="2142100176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1416,7 +1427,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1672,11 +1682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066189248"/>
-        <c:axId val="2108724080"/>
+        <c:axId val="-2093693792"/>
+        <c:axId val="-2095661184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066189248"/>
+        <c:axId val="-2093693792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1793,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108724080"/>
+        <c:crossAx val="-2095661184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1791,7 +1801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108724080"/>
+        <c:axId val="-2095661184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1916,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066189248"/>
+        <c:crossAx val="-2093693792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,30 +2101,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$14:$B$20</c:f>
+              <c:f>工作表1!$B$23:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>334.3</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402.3</c:v>
+                  <c:v>409.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>419.7</c:v>
+                  <c:v>423.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>555.5</c:v>
+                  <c:v>550.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>827.0</c:v>
+                  <c:v>823.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>924.4</c:v>
+                  <c:v>926.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1290.2</c:v>
+                  <c:v>1293.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2191,30 +2201,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$14:$C$20</c:f>
+              <c:f>工作表1!$C$23:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>360.2</c:v>
+                  <c:v>368.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423.2</c:v>
+                  <c:v>418.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420.7</c:v>
+                  <c:v>414.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>593.4</c:v>
+                  <c:v>589.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>763.5</c:v>
+                  <c:v>759.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1020.2</c:v>
+                  <c:v>1022.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1217.1</c:v>
+                  <c:v>1212.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,11 +2241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120559856"/>
-        <c:axId val="-2117640848"/>
+        <c:axId val="-2091957472"/>
+        <c:axId val="-2091952544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120559856"/>
+        <c:axId val="-2091957472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +2352,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117640848"/>
+        <c:crossAx val="-2091952544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2350,7 +2360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117640848"/>
+        <c:axId val="-2091952544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2475,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120559856"/>
+        <c:crossAx val="-2091957472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2650,30 +2660,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$23:$B$29</c:f>
+              <c:f>工作表1!$B$32:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>340.0</c:v>
+                  <c:v>389.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>409.0</c:v>
+                  <c:v>438.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>423.0</c:v>
+                  <c:v>444.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>550.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>823.0</c:v>
+                  <c:v>862.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>926.0</c:v>
+                  <c:v>971.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1293.0</c:v>
+                  <c:v>1326.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2750,30 +2760,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$23:$C$29</c:f>
+              <c:f>工作表1!$C$32:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>368.0</c:v>
+                  <c:v>396.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>418.0</c:v>
+                  <c:v>484.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>414.0</c:v>
+                  <c:v>488.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>589.0</c:v>
+                  <c:v>648.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>759.0</c:v>
+                  <c:v>808.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1022.0</c:v>
+                  <c:v>1066.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1212.0</c:v>
+                  <c:v>1250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,11 +2800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103933568"/>
-        <c:axId val="-2066214768"/>
+        <c:axId val="2142158144"/>
+        <c:axId val="2142163952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103933568"/>
+        <c:axId val="2142158144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +2911,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066214768"/>
+        <c:crossAx val="2142163952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2909,7 +2919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066214768"/>
+        <c:axId val="2142163952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,7 +3034,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103933568"/>
+        <c:crossAx val="2142158144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3209,30 +3219,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$32:$B$38</c:f>
+              <c:f>工作表1!$B$44:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>389.0</c:v>
+                  <c:v>334.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>438.0</c:v>
+                  <c:v>402.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>444.0</c:v>
+                  <c:v>419.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600.0</c:v>
+                  <c:v>555.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>862.0</c:v>
+                  <c:v>827.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>971.0</c:v>
+                  <c:v>924.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1326.0</c:v>
+                  <c:v>1290.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3309,30 +3319,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$32:$C$38</c:f>
+              <c:f>工作表1!$C$44:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>396.0</c:v>
+                  <c:v>360.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>484.0</c:v>
+                  <c:v>423.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>488.0</c:v>
+                  <c:v>420.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>648.0</c:v>
+                  <c:v>593.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>808.0</c:v>
+                  <c:v>763.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1066.0</c:v>
+                  <c:v>1020.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1250.0</c:v>
+                  <c:v>1217.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3349,11 +3359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2086068672"/>
-        <c:axId val="-2086153552"/>
+        <c:axId val="-2095512720"/>
+        <c:axId val="-2095506912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086068672"/>
+        <c:axId val="-2095512720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,7 +3470,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086153552"/>
+        <c:crossAx val="-2095506912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3468,7 +3478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086153552"/>
+        <c:axId val="-2095506912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,7 +3593,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086068672"/>
+        <c:crossAx val="-2095512720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3768,30 +3778,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$44:$B$50</c:f>
+              <c:f>工作表1!$B$53:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>334.3</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402.3</c:v>
+                  <c:v>409.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>419.7</c:v>
+                  <c:v>423.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>555.5</c:v>
+                  <c:v>550.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>827.0</c:v>
+                  <c:v>823.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>924.4</c:v>
+                  <c:v>926.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1290.2</c:v>
+                  <c:v>1293.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,30 +3878,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$44:$C$50</c:f>
+              <c:f>工作表1!$C$53:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>360.2</c:v>
+                  <c:v>368.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423.2</c:v>
+                  <c:v>418.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420.7</c:v>
+                  <c:v>414.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>593.4</c:v>
+                  <c:v>589.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>763.5</c:v>
+                  <c:v>759.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1020.2</c:v>
+                  <c:v>1022.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1217.1</c:v>
+                  <c:v>1212.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3908,11 +3918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099287584"/>
-        <c:axId val="-2115603440"/>
+        <c:axId val="-2093796544"/>
+        <c:axId val="2142160768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099287584"/>
+        <c:axId val="-2093796544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4019,7 +4029,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115603440"/>
+        <c:crossAx val="2142160768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4027,7 +4037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115603440"/>
+        <c:axId val="2142160768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,7 +4152,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099287584"/>
+        <c:crossAx val="-2093796544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4327,7 +4337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$53:$B$59</c:f>
+              <c:f>工作表1!$B$62:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4427,7 +4437,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$53:$C$59</c:f>
+              <c:f>工作表1!$C$62:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4467,11 +4477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2115006848"/>
-        <c:axId val="-2102830144"/>
+        <c:axId val="-2095468144"/>
+        <c:axId val="-2095462336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115006848"/>
+        <c:axId val="-2095468144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4578,7 +4588,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102830144"/>
+        <c:crossAx val="-2095462336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4586,7 +4596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102830144"/>
+        <c:axId val="-2095462336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,7 +4711,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115006848"/>
+        <c:crossAx val="-2095468144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4821,11 +4831,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
+              <c:f>工作表1!$B$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>host</c:v>
+                  <c:v>mount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4886,30 +4896,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$62:$B$68</c:f>
+              <c:f>工作表1!$B$71:$B$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>340.0</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>409.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>423.0</c:v>
+                  <c:v>17.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>550.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>823.0</c:v>
+                  <c:v>111.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>926.0</c:v>
+                  <c:v>217.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1293.0</c:v>
+                  <c:v>455.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4921,11 +4931,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$13</c:f>
+              <c:f>工作表1!$C$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bridge</c:v>
+                  <c:v>AUFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4986,30 +4996,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$62:$C$68</c:f>
+              <c:f>工作表1!$C$71:$C$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>368.0</c:v>
+                  <c:v>6.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>418.0</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>414.0</c:v>
+                  <c:v>15.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>589.0</c:v>
+                  <c:v>32.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>759.0</c:v>
+                  <c:v>109.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1022.0</c:v>
+                  <c:v>219.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1212.0</c:v>
+                  <c:v>385.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5026,11 +5036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087480912"/>
-        <c:axId val="-2105215376"/>
+        <c:axId val="2142081728"/>
+        <c:axId val="2142079040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087480912"/>
+        <c:axId val="2142081728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5137,7 +5147,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105215376"/>
+        <c:crossAx val="2142079040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5145,7 +5155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105215376"/>
+        <c:axId val="2142079040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,7 +5270,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087480912"/>
+        <c:crossAx val="2142081728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5279,7 +5289,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.121746289924568"/>
-          <c:y val="0.0606554389034704"/>
+          <c:y val="0.0816992099472414"/>
           <c:w val="0.424689710699347"/>
           <c:h val="0.0688069339101641"/>
         </c:manualLayout>
@@ -5445,30 +5455,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$71:$B$77</c:f>
+              <c:f>工作表1!$B$80:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.9</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.1</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217.8</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>455.3</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5545,30 +5555,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$71:$C$77</c:f>
+              <c:f>工作表1!$C$80:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.7</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.1</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.6</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.8</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>219.8</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>385.2</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5585,11 +5595,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065717984"/>
-        <c:axId val="-2104534544"/>
+        <c:axId val="-2094963904"/>
+        <c:axId val="-2095915568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065717984"/>
+        <c:axId val="-2094963904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5696,7 +5706,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104534544"/>
+        <c:crossAx val="-2095915568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5704,7 +5714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104534544"/>
+        <c:axId val="-2095915568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5819,7 +5829,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065717984"/>
+        <c:crossAx val="-2094963904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5838,7 +5848,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.121746289924568"/>
-          <c:y val="0.0816992099472414"/>
+          <c:y val="0.0648641931122246"/>
           <c:w val="0.424689710699347"/>
           <c:h val="0.0688069339101641"/>
         </c:manualLayout>
@@ -6004,30 +6014,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$80:$B$86</c:f>
+              <c:f>工作表1!$B$89:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>6222.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.0</c:v>
+                  <c:v>6571.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>10702.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,30 +6114,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$80:$C$86</c:f>
+              <c:f>工作表1!$C$89:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.0</c:v>
+                  <c:v>6369.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.0</c:v>
+                  <c:v>7310.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.0</c:v>
+                  <c:v>10711.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6144,11 +6154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120256944"/>
-        <c:axId val="-2066178688"/>
+        <c:axId val="2142189872"/>
+        <c:axId val="2142195680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120256944"/>
+        <c:axId val="2142189872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6255,7 +6265,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066178688"/>
+        <c:crossAx val="2142195680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6263,7 +6273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066178688"/>
+        <c:axId val="2142195680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6378,7 +6388,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120256944"/>
+        <c:crossAx val="2142189872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6516,7 +6526,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6772,11 +6781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103428640"/>
-        <c:axId val="2143655568"/>
+        <c:axId val="-2091993552"/>
+        <c:axId val="-2091987744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103428640"/>
+        <c:axId val="-2091993552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6883,7 +6892,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143655568"/>
+        <c:crossAx val="-2091987744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6891,7 +6900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143655568"/>
+        <c:axId val="-2091987744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7006,7 +7015,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103428640"/>
+        <c:crossAx val="-2091993552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7112,565 +7121,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.172674461956131"/>
-          <c:y val="0.0333356531191177"/>
-          <c:w val="0.818554712078106"/>
-          <c:h val="0.75669589596755"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$A$14:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$B$89:$B$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6222.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6571.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10702.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$C$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AUFS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="44450">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$A$14:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$89:$C$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6369.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7310.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10711.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2143233888"/>
-        <c:axId val="-2086149696"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2143233888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Size of Message (KB)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.375231693180788"/>
-              <c:y val="0.884616837668019"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2086149696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2086149696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Latency (us)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.000581642600192928"/>
-              <c:y val="0.182843195736897"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2143233888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.121746289924568"/>
-          <c:y val="0.0648641931122246"/>
-          <c:w val="0.424689710699347"/>
-          <c:h val="0.0688069339101641"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="0.107428258967629"/>
           <c:y val="0.0267972572982183"/>
           <c:w val="0.85646062992126"/>
@@ -7930,11 +7380,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2100082976"/>
-        <c:axId val="-2065451744"/>
+        <c:axId val="2141194368"/>
+        <c:axId val="2141197712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100082976"/>
+        <c:axId val="2141194368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7977,7 +7427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065451744"/>
+        <c:crossAx val="2141197712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7985,7 +7435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065451744"/>
+        <c:axId val="2141197712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8100,7 +7550,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100082976"/>
+        <c:crossAx val="2141194368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8185,7 +7635,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8289,7 +7739,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8393,11 +7842,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066969936"/>
-        <c:axId val="-2087587344"/>
+        <c:axId val="2141230528"/>
+        <c:axId val="2141236448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066969936"/>
+        <c:axId val="2141230528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8503,7 +7952,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087587344"/>
+        <c:crossAx val="2141236448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8511,7 +7960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087587344"/>
+        <c:axId val="2141236448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8626,7 +8075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066969936"/>
+        <c:crossAx val="2141230528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8658,6 +8107,2362 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1000"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.426578676363371"/>
+          <c:y val="0.26140873015873"/>
+          <c:w val="0.555208675087489"/>
+          <c:h val="0.377924634420697"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>host</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$14:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>334.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>402.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>419.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>555.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>827.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>924.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1290.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bridge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$14:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>420.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>593.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>763.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1020.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1217.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2141274384"/>
+        <c:axId val="2141280192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2141274384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Size of Message (KB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.375231693180788"/>
+              <c:y val="0.884616837668019"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2141280192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2141280192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Latency (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.000581642600192928"/>
+              <c:y val="0.182843195736897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2141274384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.121746289924568"/>
+          <c:y val="0.0606554389034704"/>
+          <c:w val="0.424689710699347"/>
+          <c:h val="0.0688069339101641"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2.0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$D$121:$D$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$E$121:$E$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2094629072"/>
+        <c:axId val="-2094622832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2094629072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                  <a:t>Number of Layers</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.403448872049344"/>
+              <c:y val="0.89500231831881"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2094622832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2094622832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t> to Flatten (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0187671601296855"/>
+              <c:y val="0.22554486174183"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2094629072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" charset="0"/>
+          <a:ea typeface="Times New Roman" charset="0"/>
+          <a:cs typeface="Times New Roman" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13299958609254"/>
+          <c:y val="0.0358862958691417"/>
+          <c:w val="0.843733092965419"/>
+          <c:h val="0.811770835461659"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Together</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$129:$C$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$129:$D$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12880.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5130.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3550.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3010.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1694.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Alone</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$129:$C$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$129:$E$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9452.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4656.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3175.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2753.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1781.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2064128704"/>
+        <c:axId val="-2063923360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2064128704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                  <a:t>CPU Quota</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t> of Latency Container (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.33411731944115"/>
+              <c:y val="0.916475787509656"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2063923360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2063923360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Execution Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2064128704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.704881585402272"/>
+          <c:y val="0.0590195890051867"/>
+          <c:w val="0.254250373002918"/>
+          <c:h val="0.0659068886472801"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" charset="0"/>
+          <a:ea typeface="Times New Roman" charset="0"/>
+          <a:cs typeface="Times New Roman" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.111255763522866"/>
+          <c:y val="0.0402609475149412"/>
+          <c:w val="0.866289261693758"/>
+          <c:h val="0.806500179967167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$D$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$135:$C$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$135:$D$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$135:$C$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$135:$E$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$F$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99th-percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$135:$C$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$135:$F$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2032.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4161.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>427.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2142631136"/>
+        <c:axId val="-2069162528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2142631136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                  <a:t>CPU Quota</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+                  <a:t> of Latency Container (us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2069162528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2069162528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                  <a:t>Latency (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142631136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.560883923557336"/>
+          <c:y val="0.0419445428004842"/>
+          <c:w val="0.417151411678029"/>
+          <c:h val="0.0723146118708099"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" charset="0"/>
+          <a:ea typeface="Times New Roman" charset="0"/>
+          <a:cs typeface="Times New Roman" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -8988,11 +10793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139641376"/>
-        <c:axId val="-2068076112"/>
+        <c:axId val="2141966176"/>
+        <c:axId val="2141971984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139641376"/>
+        <c:axId val="2141966176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9099,7 +10904,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068076112"/>
+        <c:crossAx val="2141971984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9107,7 +10912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068076112"/>
+        <c:axId val="2141971984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9222,7 +11027,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139641376"/>
+        <c:crossAx val="2141966176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9352,7 +11157,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9608,11 +11412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2102650592"/>
-        <c:axId val="-2088367968"/>
+        <c:axId val="2141945552"/>
+        <c:axId val="-2092022864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2102650592"/>
+        <c:axId val="2141945552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9719,7 +11523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088367968"/>
+        <c:crossAx val="-2092022864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9727,7 +11531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088367968"/>
+        <c:axId val="-2092022864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9842,7 +11646,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102650592"/>
+        <c:crossAx val="2141945552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9976,7 +11780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10207,11 +12010,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2086634896"/>
-        <c:axId val="-2085991632"/>
+        <c:axId val="2141983664"/>
+        <c:axId val="2141999216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086634896"/>
+        <c:axId val="2141983664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10248,7 +12051,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10315,7 +12117,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085991632"/>
+        <c:crossAx val="2141999216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10323,7 +12125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085991632"/>
+        <c:axId val="2141999216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10374,7 +12176,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10435,7 +12236,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086634896"/>
+        <c:crossAx val="2141983664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10856,11 +12657,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2065862560"/>
-        <c:axId val="-2066454944"/>
+        <c:axId val="2142052336"/>
+        <c:axId val="2142055680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065862560"/>
+        <c:axId val="2142052336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10903,7 +12704,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066454944"/>
+        <c:crossAx val="2142055680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10911,7 +12712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066454944"/>
+        <c:axId val="2142055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11019,7 +12820,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065862560"/>
+        <c:crossAx val="2142052336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11164,22 +12965,20 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="zh-CN"/>
@@ -11285,6 +13084,159 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2.0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$D$112:$D$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$F$112:$F$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
@@ -11294,11 +13246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2103173680"/>
-        <c:axId val="-2099524336"/>
+        <c:axId val="-2093722304"/>
+        <c:axId val="-2095686960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2103173680"/>
+        <c:axId val="-2093722304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11311,23 +13263,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Number of Layers</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" sz="2000"/>
+                <a:endParaRPr lang="zh-CN" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11352,16 +13304,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -11384,27 +13336,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099524336"/>
+        <c:crossAx val="-2095686960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099524336"/>
+        <c:axId val="-2095686960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11431,23 +13383,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Latency (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" sz="2000"/>
+                <a:endParaRPr lang="zh-CN" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11455,8 +13407,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0"/>
-              <c:y val="0.246591141330431"/>
+              <c:x val="0.0237317663563761"/>
+              <c:y val="0.349379181366336"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -11472,16 +13424,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -11504,28 +13456,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103173680"/>
+        <c:crossAx val="-2093722304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -11550,7 +13502,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" charset="0"/>
+          <a:ea typeface="Times New Roman" charset="0"/>
+          <a:cs typeface="Times New Roman" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -11881,11 +13837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143717616"/>
-        <c:axId val="-2088225520"/>
+        <c:axId val="-2095627808"/>
+        <c:axId val="2142014368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143717616"/>
+        <c:axId val="-2095627808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11992,7 +13948,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088225520"/>
+        <c:crossAx val="2142014368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12000,7 +13956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088225520"/>
+        <c:axId val="2142014368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12115,7 +14071,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143717616"/>
+        <c:crossAx val="-2095627808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12245,7 +14201,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12501,11 +14456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066347856"/>
-        <c:axId val="-2067231040"/>
+        <c:axId val="-2095611184"/>
+        <c:axId val="2142019072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066347856"/>
+        <c:axId val="-2095611184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12612,7 +14567,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067231040"/>
+        <c:crossAx val="2142019072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12620,7 +14575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067231040"/>
+        <c:axId val="2142019072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12735,7 +14690,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066347856"/>
+        <c:crossAx val="-2095611184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13420,6 +15375,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19893,7 +21968,7 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -20001,11 +22076,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -20016,11 +22086,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -20052,9 +22117,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20409,7 +22471,7 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -20517,6 +22579,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -20527,6 +22594,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -20558,6 +22630,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21074,6 +23149,1528 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -25191,15 +28788,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1381058</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>179422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>644458</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>65122</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25220,16 +28817,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269267</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>21346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>484378</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>143764</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>632996</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>76211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25378,36 +28975,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>772617</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33020</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -25432,7 +28999,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25464,7 +29031,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25496,7 +29063,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25528,7 +29095,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25560,7 +29127,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25592,7 +29159,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25624,7 +29191,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25656,7 +29223,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25665,15 +29232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:colOff>125379</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>182664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>757428</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>156464</xdr:rowOff>
+      <xdr:colOff>95407</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>48379</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25686,7 +29253,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25716,7 +29283,127 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>143618</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>117543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>683309</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1202446</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>27021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495839</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>142133</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>743085</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>108086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>421534</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>169153</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54042</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>148619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>462065</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>88091</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25988,10 +29675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -26846,7 +30533,7 @@
         <v>10711</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -26854,7 +30541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -26865,7 +30552,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -26876,7 +30563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -26887,12 +30574,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1</v>
       </c>
@@ -26900,7 +30587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>2</v>
       </c>
@@ -26908,7 +30595,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>3</v>
       </c>
@@ -26916,7 +30603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>4</v>
       </c>
@@ -26924,7 +30611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>5</v>
       </c>
@@ -26932,7 +30619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>6</v>
       </c>
@@ -26940,12 +30627,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>8</v>
       </c>
@@ -26953,7 +30640,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>9</v>
       </c>
@@ -26963,8 +30650,11 @@
       <c r="E112">
         <v>31</v>
       </c>
+      <c r="F112">
+        <v>32</v>
+      </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>10</v>
       </c>
@@ -26974,8 +30664,11 @@
       <c r="E113">
         <v>37</v>
       </c>
+      <c r="F113">
+        <v>32</v>
+      </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>11</v>
       </c>
@@ -26985,8 +30678,11 @@
       <c r="E114">
         <v>45</v>
       </c>
+      <c r="F114">
+        <v>33</v>
+      </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>12</v>
       </c>
@@ -26996,8 +30692,11 @@
       <c r="E115">
         <v>61</v>
       </c>
+      <c r="F115">
+        <v>32</v>
+      </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>13</v>
       </c>
@@ -27007,8 +30706,11 @@
       <c r="E116">
         <v>94</v>
       </c>
+      <c r="F116">
+        <v>32</v>
+      </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>14</v>
       </c>
@@ -27018,13 +30720,16 @@
       <c r="E117">
         <v>135</v>
       </c>
+      <c r="F117">
+        <v>32</v>
+      </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>16</v>
       </c>
@@ -27032,87 +30737,245 @@
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>18</v>
       </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>7.923</v>
+      </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>19</v>
       </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>7.9349999999999996</v>
+      </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>20</v>
       </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>7.96</v>
+      </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>21</v>
       </c>
+      <c r="D124">
+        <v>8</v>
+      </c>
+      <c r="E124">
+        <v>8.0009999999999994</v>
+      </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>22</v>
       </c>
+      <c r="D125">
+        <v>16</v>
+      </c>
+      <c r="E125">
+        <v>8.1229999999999993</v>
+      </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>23</v>
       </c>
+      <c r="D126">
+        <v>32</v>
+      </c>
+      <c r="E126">
+        <v>8.2449999999999992</v>
+      </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>26</v>
       </c>
+      <c r="C129">
+        <v>9000</v>
+      </c>
+      <c r="D129">
+        <v>12880</v>
+      </c>
+      <c r="E129">
+        <v>9452</v>
+      </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>27</v>
       </c>
+      <c r="C130">
+        <v>8000</v>
+      </c>
+      <c r="D130">
+        <v>5130</v>
+      </c>
+      <c r="E130">
+        <v>4656</v>
+      </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>28</v>
       </c>
+      <c r="C131">
+        <v>7000</v>
+      </c>
+      <c r="D131">
+        <v>3550</v>
+      </c>
+      <c r="E131">
+        <v>3175</v>
+      </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>29</v>
       </c>
+      <c r="C132">
+        <v>6000</v>
+      </c>
+      <c r="D132">
+        <v>3010</v>
+      </c>
+      <c r="E132">
+        <v>2753</v>
+      </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>30</v>
       </c>
+      <c r="C133">
+        <v>5000</v>
+      </c>
+      <c r="D133">
+        <v>1694</v>
+      </c>
+      <c r="E133">
+        <v>1781</v>
+      </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>31</v>
       </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>32</v>
       </c>
       <c r="B135">
         <v>135</v>
+      </c>
+      <c r="C135">
+        <v>9000</v>
+      </c>
+      <c r="D135">
+        <v>293</v>
+      </c>
+      <c r="E135">
+        <v>255</v>
+      </c>
+      <c r="F135">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C136">
+        <v>8000</v>
+      </c>
+      <c r="D136">
+        <v>319</v>
+      </c>
+      <c r="E136">
+        <v>243</v>
+      </c>
+      <c r="F136">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C137">
+        <v>7000</v>
+      </c>
+      <c r="D137">
+        <v>278</v>
+      </c>
+      <c r="E137">
+        <v>243</v>
+      </c>
+      <c r="F137">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C138">
+        <v>6000</v>
+      </c>
+      <c r="D138">
+        <v>243</v>
+      </c>
+      <c r="E138">
+        <v>239</v>
+      </c>
+      <c r="F138">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C139">
+        <v>5000</v>
+      </c>
+      <c r="D139">
+        <v>226</v>
+      </c>
+      <c r="E139">
+        <v>221</v>
+      </c>
+      <c r="F139">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
